--- a/trunk/!docs/Ускорения двухфазной задачи.xlsx
+++ b/trunk/!docs/Ускорения двухфазной задачи.xlsx
@@ -177,11 +177,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="40490880"/>
-        <c:axId val="40492416"/>
+        <c:axId val="53274496"/>
+        <c:axId val="53276032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="40490880"/>
+        <c:axId val="53274496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -190,7 +190,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40492416"/>
+        <c:crossAx val="53276032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -198,7 +198,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40492416"/>
+        <c:axId val="53276032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -209,7 +209,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40490880"/>
+        <c:crossAx val="53274496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -318,11 +318,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="40721408"/>
-        <c:axId val="40735488"/>
+        <c:axId val="53500928"/>
+        <c:axId val="53515008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="40721408"/>
+        <c:axId val="53500928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -331,7 +331,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40735488"/>
+        <c:crossAx val="53515008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -339,7 +339,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40735488"/>
+        <c:axId val="53515008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -350,10 +350,265 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40721408"/>
+        <c:crossAx val="53500928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Время расчетов 300 шагов сетки в 1,5 млрд. точек</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$13:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$13:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>136.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="86187392"/>
+        <c:axId val="86209664"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="86187392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="ru-RU" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Количество процессоров </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>CPU</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="86209664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="86209664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="ru-RU" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Расчетое время в секундах</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="86187392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -429,6 +684,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1" title="Время расчетов 300 шагов сетки в 1,5 млрд. точек"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -724,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,6 +1052,10 @@
       <c r="C4" s="1">
         <v>0</v>
       </c>
+      <c r="D4">
+        <f>B4*100</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -778,6 +1067,10 @@
       <c r="C5" s="1">
         <v>0</v>
       </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D16" si="0">B5*100</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -790,6 +1083,10 @@
         <f>B6/525.67*A6/30</f>
         <v>1</v>
       </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>52566.999999999993</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -799,8 +1096,12 @@
         <v>354.7</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" ref="C7:C14" si="0">B7/525.67*A7/30</f>
+        <f t="shared" ref="C7:C16" si="1">B7/525.67*A7/30</f>
         <v>0.8996772373035048</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>35470</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -811,8 +1112,12 @@
         <v>276.5</v>
       </c>
       <c r="C8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.87665899391887181</v>
+      </c>
+      <c r="D8">
         <f t="shared" si="0"/>
-        <v>0.87665899391887181</v>
+        <v>27650</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -823,8 +1128,12 @@
         <v>229.68</v>
       </c>
       <c r="C9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.87385622158388354</v>
+      </c>
+      <c r="D9">
         <f t="shared" si="0"/>
-        <v>0.87385622158388354</v>
+        <v>22968</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -835,8 +1144,12 @@
         <v>208.46</v>
       </c>
       <c r="C10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.92530801960672426</v>
+      </c>
+      <c r="D10">
         <f t="shared" si="0"/>
-        <v>0.92530801960672426</v>
+        <v>20846</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -847,8 +1160,12 @@
         <v>171.82</v>
       </c>
       <c r="C11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.87162414949810096</v>
+      </c>
+      <c r="D11">
         <f t="shared" si="0"/>
-        <v>0.87162414949810096</v>
+        <v>17182</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -859,8 +1176,12 @@
         <v>158.19</v>
       </c>
       <c r="C12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.90279072421861639</v>
+      </c>
+      <c r="D12">
         <f t="shared" si="0"/>
-        <v>0.90279072421861639</v>
+        <v>15819</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -871,8 +1192,12 @@
         <v>136.30000000000001</v>
       </c>
       <c r="C13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.86429382185274684</v>
+      </c>
+      <c r="D13">
         <f t="shared" si="0"/>
-        <v>0.86429382185274684</v>
+        <v>13630.000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -883,8 +1208,44 @@
         <v>65.09</v>
       </c>
       <c r="C14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.82548620490675406</v>
+      </c>
+      <c r="D14">
         <f t="shared" si="0"/>
-        <v>0.82548620490675406</v>
+        <v>6509</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>300</v>
+      </c>
+      <c r="B15">
+        <v>43.54</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.82827629501398214</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>4354</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>400</v>
+      </c>
+      <c r="B16">
+        <v>37.01</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.93873849880469995</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>3701</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/!docs/Ускорения двухфазной задачи.xlsx
+++ b/trunk/!docs/Ускорения двухфазной задачи.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="24915" windowHeight="12585"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="24915" windowHeight="12585" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="1.5 млрд точек" sheetId="1" r:id="rId1"/>
+    <sheet name="62.5 млн точек" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>cpu</t>
   </si>
@@ -38,11 +38,41 @@
   <si>
     <t>квазиодномерная - двухслойная</t>
   </si>
+  <si>
+    <t>2500x250x100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> или 62.5 млн точек</t>
+  </si>
+  <si>
+    <t>1000 шагов GPU</t>
+  </si>
+  <si>
+    <t>10 шагов CPU</t>
+  </si>
+  <si>
+    <t>процессоры</t>
+  </si>
+  <si>
+    <t>GPU</t>
+  </si>
+  <si>
+    <t>CPUx100</t>
+  </si>
+  <si>
+    <t>ускорение CPU/GPU</t>
+  </si>
+  <si>
+    <t>двухслойная</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -73,9 +103,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -128,7 +161,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$4:$B$13</c:f>
+              <c:f>'1.5 млрд точек'!$B$4:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -177,11 +210,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="53274496"/>
-        <c:axId val="53276032"/>
+        <c:axId val="39122816"/>
+        <c:axId val="39124352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="53274496"/>
+        <c:axId val="39122816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -190,7 +223,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53276032"/>
+        <c:crossAx val="39124352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -198,7 +231,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53276032"/>
+        <c:axId val="39124352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -209,14 +242,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53274496"/>
+        <c:crossAx val="39122816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -269,7 +301,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$4:$C$13</c:f>
+              <c:f>'1.5 млрд точек'!$C$4:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
@@ -318,11 +350,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="53500928"/>
-        <c:axId val="53515008"/>
+        <c:axId val="52648960"/>
+        <c:axId val="52663040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="53500928"/>
+        <c:axId val="52648960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -331,7 +363,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53515008"/>
+        <c:crossAx val="52663040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -339,7 +371,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53515008"/>
+        <c:axId val="52663040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -350,14 +382,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53500928"/>
+        <c:crossAx val="52648960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -405,7 +436,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -423,7 +453,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$13:$A$16</c:f>
+              <c:f>'1.5 млрд точек'!$A$13:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -444,7 +474,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$13:$B$16</c:f>
+              <c:f>'1.5 млрд точек'!$B$13:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -476,11 +506,11 @@
         <c:hiLowLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="86187392"/>
-        <c:axId val="86209664"/>
+        <c:axId val="54002432"/>
+        <c:axId val="54004352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86187392"/>
+        <c:axId val="54002432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -535,14 +565,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86209664"/>
+        <c:crossAx val="54004352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -550,7 +579,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86209664"/>
+        <c:axId val="54004352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -593,14 +622,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86187392"/>
+        <c:crossAx val="54002432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -609,6 +637,288 @@
           <a:noFill/>
         </a:ln>
       </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'62.5 млн точек'!$A$5:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'62.5 млн точек'!$E$5:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>101.94610778443113</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.87777777777778</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84.742424242424249</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.92307692307692</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71.361702127659569</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67.634146341463421</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66.555555555555557</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65.942857142857136</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54.941176470588232</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.424242424242422</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="54021504"/>
+        <c:axId val="54048256"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="54021504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="0">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Количество</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="0" baseline="0">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> процессоров/ускорителей</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="0">
+                  <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="54048256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="54048256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+          <c:min val="40"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="ru-RU" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Ускорение</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> GPU</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> к</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> CPU </a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="54021504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -714,6 +1024,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1011,8 +1356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1257,13 +1602,341 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1">
+        <f>2500*250*100</f>
+        <v>62500000</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>167</v>
+      </c>
+      <c r="C5">
+        <v>17025</v>
+      </c>
+      <c r="E5" s="2">
+        <f>C5/B5</f>
+        <v>101.94610778443113</v>
+      </c>
+      <c r="G5" s="3">
+        <f>$B$16/B5/A5</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <f>$C$16/C5/A5</f>
+        <v>1.2205932452276065</v>
+      </c>
+      <c r="J5" s="4">
+        <f>$C$16/B5</f>
+        <v>1244.3473053892214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>90</v>
+      </c>
+      <c r="C6">
+        <v>8359</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" ref="E6:E14" si="0">C6/B6</f>
+        <v>92.87777777777778</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" ref="G6:G14" si="1">$B$16/B6/A6</f>
+        <v>0.92777777777777781</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" ref="H6:H14" si="2">$C$16/C6/A6</f>
+        <v>1.2430075367866968</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" ref="J6:J14" si="3">$C$16/B6</f>
+        <v>2308.9555555555557</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>66</v>
+      </c>
+      <c r="C7">
+        <v>5593</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>84.742424242424249</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.84343434343434354</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="2"/>
+        <v>1.2384885869241313</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="3"/>
+        <v>3148.5757575757575</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>52</v>
+      </c>
+      <c r="C8">
+        <v>4364</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>83.92307692307692</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.80288461538461531</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1904560036663612</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="3"/>
+        <v>3996.2692307692309</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>50</v>
+      </c>
+      <c r="B9">
+        <v>47</v>
+      </c>
+      <c r="C9">
+        <v>3354</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>71.361702127659569</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="1"/>
+        <v>0.71063829787234045</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="2"/>
+        <v>1.2391532498509243</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="3"/>
+        <v>4421.4042553191493</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>60</v>
+      </c>
+      <c r="B10">
+        <v>41</v>
+      </c>
+      <c r="C10">
+        <v>2773</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>67.634146341463421</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="1"/>
+        <v>0.67886178861788626</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="2"/>
+        <v>1.2489842529150139</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="3"/>
+        <v>5068.4390243902435</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>70</v>
+      </c>
+      <c r="B11">
+        <v>36</v>
+      </c>
+      <c r="C11">
+        <v>2396</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>66.555555555555557</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="1"/>
+        <v>0.66269841269841268</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="2"/>
+        <v>1.2390054853326973</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="3"/>
+        <v>5772.3888888888887</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>80</v>
+      </c>
+      <c r="B12">
+        <v>35</v>
+      </c>
+      <c r="C12">
+        <v>2308</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>65.942857142857136</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="1"/>
+        <v>0.59642857142857142</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1254657712305025</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="3"/>
+        <v>5937.3142857142857</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>90</v>
+      </c>
+      <c r="B13">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>1868</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>54.941176470588232</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="1"/>
+        <v>0.54575163398692805</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="2"/>
+        <v>1.2360575779205329</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="3"/>
+        <v>6111.9411764705883</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>100</v>
+      </c>
+      <c r="B14">
+        <v>33</v>
+      </c>
+      <c r="C14">
+        <v>1664</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>50.424242424242422</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5060606060606061</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="2"/>
+        <v>1.2488341346153846</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="3"/>
+        <v>6297.151515151515</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>1670</v>
+      </c>
+      <c r="C16">
+        <v>207806</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
